--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-47/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-47/curvature_data.xlsx
@@ -379,30 +379,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>53240.071007</v>
+        <v>53229.207007</v>
       </c>
       <c r="B2">
-        <v>-0.00019395772465</v>
+        <v>-3.6007941643e-05</v>
       </c>
       <c r="C2">
-        <v>-0.00015621063552</v>
+        <v>-2.8861359878e-05</v>
       </c>
       <c r="D2">
-        <v>-4.4064187327e-05</v>
+        <v>-7.6919675216e-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>53266.939009</v>
+        <v>53240.071007</v>
       </c>
       <c r="B3">
-        <v>-0.0007229895</v>
+        <v>-0.00019395772465</v>
       </c>
       <c r="C3">
-        <v>-0.0005913059</v>
+        <v>-0.00015621063552</v>
       </c>
       <c r="D3">
-        <v>-0.0001485774</v>
+        <v>-4.4064187327e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -421,16 +421,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>53229.207007</v>
+        <v>53266.939009</v>
       </c>
       <c r="B5">
-        <v>-3.6007941643e-05</v>
+        <v>-0.0007229895</v>
       </c>
       <c r="C5">
-        <v>-2.8861359878e-05</v>
+        <v>-0.0005913059</v>
       </c>
       <c r="D5">
-        <v>-7.6919675216e-06</v>
+        <v>-0.0001485774</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -449,30 +449,30 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>53299.07101</v>
+        <v>53288.67101</v>
       </c>
       <c r="B7">
-        <v>-2.9746389323e-05</v>
+        <v>-0.00018249611083</v>
       </c>
       <c r="C7">
-        <v>-2.3840005802e-05</v>
+        <v>-0.00014744250269</v>
       </c>
       <c r="D7">
-        <v>-6.3411136321e-06</v>
+        <v>-4.3359405461e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>53288.67101</v>
+        <v>53299.07101</v>
       </c>
       <c r="B8">
-        <v>-0.00018249611083</v>
+        <v>-2.9746389323e-05</v>
       </c>
       <c r="C8">
-        <v>-0.00014744250269</v>
+        <v>-2.3840005802e-05</v>
       </c>
       <c r="D8">
-        <v>-4.3359405461e-05</v>
+        <v>-6.3411136321e-06</v>
       </c>
     </row>
   </sheetData>
